--- a/biology/Botanique/Lotus_tenuis/Lotus_tenuis.xlsx
+++ b/biology/Botanique/Lotus_tenuis/Lotus_tenuis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotus tenuis, le Lotier à feuilles étroites, Lotier à feuilles ténues ou Lotier glabre, est une espèce végétale de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Littoral, prairies hygrophiles, terrains exondés. De 0 à 1600 m.
 </t>
@@ -542,9 +556,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante en France[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante en France.
 L'espèce est considérée comme quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Lorraine, Bourgogne, Picardie et Auvergne.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lotus argolicus Link
 Lotus campestris Schur
